--- a/csr/csr.xlsx
+++ b/csr/csr.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28740" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>mstatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SD</t>
   </si>
   <si>
+    <t>TSR</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>TVM</t>
+  </si>
+  <si>
+    <t>MXR</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>MPRV</t>
+  </si>
+  <si>
     <t>XS</t>
   </si>
   <si>
@@ -58,30 +70,40 @@
     <t>SIE</t>
   </si>
   <si>
-    <t>MPRV</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>MXR</t>
-  </si>
-  <si>
-    <t>TVM</t>
-  </si>
-  <si>
-    <t>TW</t>
-  </si>
-  <si>
-    <t>TSR</t>
-  </si>
-  <si>
-    <t>x's</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>mstatush</t>
+  </si>
+  <si>
+    <t>MBE</t>
+  </si>
+  <si>
+    <t>SBE</t>
+  </si>
+  <si>
+    <t>不支持</t>
   </si>
   <si>
     <t>大小端控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量扩展状态</t>
+  </si>
+  <si>
+    <t>恒等于3</t>
+  </si>
+  <si>
+    <t>浮点扩展</t>
+  </si>
+  <si>
+    <t>非标扩展</t>
+  </si>
+  <si>
+    <t>用户模式不支持</t>
+  </si>
+  <si>
+    <t>s模式不支持</t>
+  </si>
+  <si>
+    <t>当没有比M更低特权的模式时，TW为只读0。</t>
   </si>
   <si>
     <t>UXL</t>
@@ -90,96 +112,377 @@
     <t>SXL</t>
   </si>
   <si>
-    <t>SBE</t>
-  </si>
-  <si>
-    <t>MBE</t>
-  </si>
-  <si>
     <t>小段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向量扩展状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非标扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fsxsvs都是0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户模式不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s模式不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MXR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TVM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当没有比M更低特权的模式时，TW为只读0。</t>
-  </si>
-  <si>
-    <t>恒等于3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -189,124 +492,571 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -355,7 +1105,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -390,7 +1140,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -564,327 +1314,370 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" ht="15" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" ht="15" spans="1:16">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23">
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24">
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="M7:P7"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>